--- a/biology/Botanique/Baphia/Baphia.xlsx
+++ b/biology/Botanique/Baphia/Baphia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baphia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales d'Afrique et de Madagascar, qui comprend une cinquantaine d'espèces acceptées.
 Ce sont des arbres, des arbustes ou des lianes à feuilles simples. Certaines espèces sont exploitées pour leur bois.
-La genre Baphia était précédemment classé dans la tribu des Sophoreae[3], mais des analyses récentes de phylogénétique moléculaire ont conduit à le réaffecter  à la tribu des Baphieae[4],[5],[6],[7].
+La genre Baphia était précédemment classé dans la tribu des Sophoreae, mais des analyses récentes de phylogénétique moléculaire ont conduit à le réaffecter  à la tribu des Baphieae.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Baphia » dérive d'une racine grecque,  βάπτω (báptō), « tremper, teindre », en référence à une teinture rouge extraite du bois de cœur (duramen) des espèces tropicales[8],[9]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Baphia » dérive d'une racine grecque,  βάπτω (báptō), « tremper, teindre », en référence à une teinture rouge extraite du bois de cœur (duramen) des espèces tropicales,
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (25 juillet 2017)[10] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (25 juillet 2017) :
 Baphia abyssinica Brummitt
 Baphia angolensis Baker
 Baphia aurivellera Taub.
